--- a/doc/财务需求（班组，报表，流程串联）/0422/董岩的工作计划-0502之前.xlsx
+++ b/doc/财务需求（班组，报表，流程串联）/0422/董岩的工作计划-0502之前.xlsx
@@ -277,7 +277,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,106 +359,131 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,357 +789,357 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47" style="8" customWidth="1"/>
-    <col min="2" max="2" width="74.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="10" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="10" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="94.625" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="47" style="7" customWidth="1"/>
+    <col min="2" max="2" width="74.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="94.625" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:7" s="34" customFormat="1" ht="60" customHeight="1">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" s="11" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" s="11" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" s="11" customFormat="1" ht="80.099999999999994" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="17"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" s="2" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="37" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="38" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="39" s="1" customFormat="1" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:B5"/>

--- a/doc/财务需求（班组，报表，流程串联）/0422/董岩的工作计划-0502之前.xlsx
+++ b/doc/财务需求（班组，报表，流程串联）/0422/董岩的工作计划-0502之前.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,6 +447,34 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,34 +484,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +789,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -805,15 +805,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -838,26 +838,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="34" customFormat="1" ht="60" customHeight="1">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:7" s="31" customFormat="1" ht="60" customHeight="1">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="13"/>
@@ -872,7 +872,7 @@
       <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -896,20 +896,20 @@
       </c>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="22"/>
